--- a/DIPAK/SFS RETURN DATA.xlsx
+++ b/DIPAK/SFS RETURN DATA.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'NOT RECEIVED '!$A$1:$Q$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RETURN RECIVED '!$A$1:$K$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RETURN RECIVED '!$A$1:$K$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
   <si>
     <t>DATE</t>
   </si>
@@ -188,6 +188,69 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>7X100102365</t>
+  </si>
+  <si>
+    <t>7X100105524</t>
+  </si>
+  <si>
+    <t>I45972637</t>
+  </si>
+  <si>
+    <t>COR507DREG999009</t>
+  </si>
+  <si>
+    <t>LIFE WESTEN</t>
+  </si>
+  <si>
+    <t>JEANS</t>
+  </si>
+  <si>
+    <t>A24VG940581002</t>
+  </si>
+  <si>
+    <t>HANDBAG</t>
+  </si>
+  <si>
+    <t>GUESS</t>
+  </si>
+  <si>
+    <t>FMADIQ9051004</t>
+  </si>
+  <si>
+    <t>ADIDAS</t>
+  </si>
+  <si>
+    <t>A24AUSHAHIPU002</t>
+  </si>
+  <si>
+    <t>KURTA SET</t>
+  </si>
+  <si>
+    <t>AUTUMN LANE</t>
+  </si>
+  <si>
+    <t>WCK25200237</t>
+  </si>
+  <si>
+    <t>WATCH</t>
+  </si>
+  <si>
+    <t>CALVIN KLEIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFECTIVE PRODUCT RECEIVE   YES </t>
+  </si>
+  <si>
+    <t>ssb_SSB_1130222</t>
+  </si>
+  <si>
+    <t>LEYELINER</t>
+  </si>
+  <si>
+    <t>LAKME</t>
   </si>
 </sst>
 </file>
@@ -237,8 +300,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -304,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -350,10 +413,16 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -679,15 +748,15 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22" style="26" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="20" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
@@ -704,7 +773,7 @@
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -725,13 +794,13 @@
       <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>51</v>
       </c>
     </row>
@@ -763,7 +832,7 @@
       <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="L2" s="1" t="s">
         <v>40</v>
       </c>
@@ -796,7 +865,7 @@
       <c r="I3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="22"/>
       <c r="L3" s="1" t="s">
         <v>40</v>
       </c>
@@ -829,7 +898,7 @@
       <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="22"/>
       <c r="L4" s="1" t="s">
         <v>40</v>
       </c>
@@ -862,7 +931,7 @@
       <c r="I5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="22"/>
       <c r="L5" s="1" t="s">
         <v>40</v>
       </c>
@@ -895,7 +964,7 @@
       <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="22"/>
       <c r="L6" s="1" t="s">
         <v>40</v>
       </c>
@@ -928,7 +997,7 @@
       <c r="I7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="22"/>
       <c r="L7" s="1" t="s">
         <v>40</v>
       </c>
@@ -961,7 +1030,7 @@
       <c r="I8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="22" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -996,7 +1065,7 @@
       <c r="I9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -1004,213 +1073,323 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="23"/>
+      <c r="A10" s="6">
+        <v>45639</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7">
+        <v>17856613416</v>
+      </c>
+      <c r="D10" s="1">
+        <v>435534894</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="23"/>
+      <c r="A11" s="6">
+        <v>45639</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1">
+        <v>432359302</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="23"/>
+      <c r="A12" s="6">
+        <v>45639</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1">
+        <v>435484484</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="21">
-        <v>50542020</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="23"/>
+      <c r="A13" s="6">
+        <v>45639</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7">
+        <v>14514432980645</v>
+      </c>
+      <c r="D13" s="1">
+        <v>432980645</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="23"/>
+      <c r="A14" s="6">
+        <v>45639</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1">
+        <v>433952700</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="23"/>
+      <c r="A15" s="6">
+        <v>45639</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7">
+        <v>17856603804</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="19">
+        <v>205820956</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="19"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="23"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="19"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="23"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="19"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="23"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="19"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="23"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="19"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="23"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="19"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="23"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="19"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="23"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="19"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="23"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="19"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="23"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="19"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="23"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="19"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="23"/>
+      <c r="J26" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K9"/>
+  <autoFilter ref="A1:K15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1218,11 +1397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45635</v>
       </c>
@@ -1352,7 +1530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45635</v>
       </c>
@@ -1405,7 +1583,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45635</v>
       </c>
@@ -1458,7 +1636,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45635</v>
       </c>
@@ -1700,11 +1878,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q9">
-    <filterColumn colId="0">
-      <dynamicFilter type="today" val="45638" maxVal="45639"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q9"/>
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
@@ -1722,12 +1896,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f137c1a3-d6be-43f6-9b6b-e500acd3255a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1970,17 +2143,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f137c1a3-d6be-43f6-9b6b-e500acd3255a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{035382D5-D8A6-494A-AE49-5552B08AF1F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0A916B8-4C99-4553-9EC0-19BB86D78438}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f137c1a3-d6be-43f6-9b6b-e500acd3255a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="522362b1-76f8-46a7-955d-f84f5e7e26b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2005,18 +2188,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0A916B8-4C99-4553-9EC0-19BB86D78438}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{035382D5-D8A6-494A-AE49-5552B08AF1F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f137c1a3-d6be-43f6-9b6b-e500acd3255a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="522362b1-76f8-46a7-955d-f84f5e7e26b0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>